--- a/data/trans_bre/P1409-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1409-Provincia-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>0.1795277027588506</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2444009480991764</v>
+        <v>0.244400948099175</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.460685279919452</v>
@@ -627,7 +627,7 @@
         <v>0.05096391605032564</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07103083809908049</v>
+        <v>0.07103083809908005</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.559312448430191</v>
+        <v>-1.57133389407848</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.023419024226806</v>
+        <v>-2.60076681753688</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.156534115825132</v>
+        <v>-3.597376834326875</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.5237251667025911</v>
+        <v>-0.4593859400060532</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5994753506549331</v>
+        <v>-0.5674868868666497</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5701884312064615</v>
+        <v>-0.6236088087182922</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.243972024013179</v>
+        <v>4.506653770257361</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.290847217305409</v>
+        <v>3.505576591487239</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.753297370108652</v>
+        <v>2.580521680480559</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3.059885487046162</v>
+        <v>3.051458651664563</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.649850493944934</v>
+        <v>1.922129420646868</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.529677957911832</v>
+        <v>1.333883459903247</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.416561474650156</v>
+        <v>0.382036603552625</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4777997912269426</v>
+        <v>0.5134714116430192</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.235929482625244</v>
+        <v>-3.002332821241247</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.008111495930416036</v>
+        <v>0.08581501133764265</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1207102794527284</v>
+        <v>0.09243883585252441</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4655310714226717</v>
+        <v>-0.4831048724369743</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.131230404971507</v>
+        <v>4.257090492314182</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.122388139346396</v>
+        <v>4.313833779562865</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.939754592994397</v>
+        <v>2.593208122991292</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>6.129128645090854</v>
+        <v>7.084391168665682</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7.649418673118199</v>
+        <v>7.500003283156248</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.157374386293134</v>
+        <v>0.9770976660315032</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.604159166840956</v>
+        <v>-1.894983850145533</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9199606834588724</v>
+        <v>-0.9604745382609634</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.172397068672761</v>
+        <v>-2.441498584364361</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.6848353246611887</v>
+        <v>-0.7402641327795909</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4194738714891832</v>
+        <v>-0.4866938334961793</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.356264843623574</v>
+        <v>-0.412086714532386</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.54313144095757</v>
+        <v>2.397168824552522</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.458842003801146</v>
+        <v>4.470695246352918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.381659547618988</v>
+        <v>3.148100884459741</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.171980205890277</v>
+        <v>3.289819220188151</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.354034121173243</v>
+        <v>4.605533577394036</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.17732616430473</v>
+        <v>0.9814434954448279</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>1.046031739110612</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-1.464390129779177</v>
+        <v>-1.464390129779178</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2043947017919816</v>
@@ -873,7 +873,7 @@
         <v>0.2512138279192417</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.431567826293763</v>
+        <v>-0.4315678262937631</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.636717634960679</v>
+        <v>-1.650637588188301</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.944344312727754</v>
+        <v>-1.963276686972673</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.686701167287953</v>
+        <v>-5.348945002526768</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5930672011206367</v>
+        <v>-0.5855077309422839</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3727502993946195</v>
+        <v>-0.3873886631894147</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8334172564009731</v>
+        <v>-0.8150415954341559</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.480281010426836</v>
+        <v>2.225279220427763</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.091540968558452</v>
+        <v>4.186782432612737</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4530084451902895</v>
+        <v>0.6453373535189323</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.876690220074992</v>
+        <v>2.757912794855569</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.584834353717285</v>
+        <v>1.561816731158288</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2489382727928963</v>
+        <v>0.4736187614949248</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.566968237699608</v>
+        <v>-2.693304384609883</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.572021963000365</v>
+        <v>-2.461589433760825</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0506839314998744</v>
+        <v>0.01076717635317132</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.7734414187104114</v>
+        <v>-0.8058782597986942</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.6744533986681935</v>
+        <v>-0.6731621140453655</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2104717519343393</v>
+        <v>-0.2245872341275084</v>
       </c>
     </row>
     <row r="18">
@@ -992,25 +992,21 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.704822066738232</v>
+        <v>3.574203606788487</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.62583616329132</v>
+        <v>3.342387376914564</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.761607109607171</v>
+        <v>5.889391730264975</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4.748905026682742</v>
+        <v>3.650666892853149</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.88035575788822</v>
-      </c>
-      <c r="H18" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
+        <v>2.631249618001265</v>
+      </c>
+      <c r="H18" s="6" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1050,22 +1046,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.326945858812794</v>
+        <v>-1.9954683221892</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.6473067145355023</v>
+        <v>-0.7778405767996942</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.8315603042584087</v>
+        <v>-1.029866780174644</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5758105148808764</v>
+        <v>-0.5440363183347167</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4833664082921941</v>
+        <v>-0.5226619412092205</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.183129934783362</v>
+        <v>-0.2406883864259262</v>
       </c>
     </row>
     <row r="21">
@@ -1076,22 +1072,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.196696579180665</v>
+        <v>3.529537168772263</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.107112542823154</v>
+        <v>4.358747658540271</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.724435861640211</v>
+        <v>4.735289424972607</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.614756372002575</v>
+        <v>2.540694871508496</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.680788773161029</v>
+        <v>9.996151015849509</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.024070610324595</v>
+        <v>2.118021613074001</v>
       </c>
     </row>
     <row r="22">
@@ -1112,7 +1108,7 @@
         <v>1.330127061268305</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.806256380407588</v>
+        <v>3.806256380407587</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.4566153521388529</v>
@@ -1121,7 +1117,7 @@
         <v>0.4276839672164119</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9475800602769684</v>
+        <v>0.9475800602769683</v>
       </c>
     </row>
     <row r="23">
@@ -1132,22 +1128,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.9706180083870604</v>
+        <v>-0.8117995849712292</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.8138799758816539</v>
+        <v>-0.7269679731271097</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9902225874967089</v>
+        <v>0.9960933454152653</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.4831737482175957</v>
+        <v>-0.4159465801330062</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2381732696553092</v>
+        <v>-0.1883800456484855</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1180194376297541</v>
+        <v>0.1315188574293706</v>
       </c>
     </row>
     <row r="24">
@@ -1158,22 +1154,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.260126030342803</v>
+        <v>2.292112357932874</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.669960933604711</v>
+        <v>3.352156579884329</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.317334446494488</v>
+        <v>6.095530414808334</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.46751945001118</v>
+        <v>2.936405301174618</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.555228537138111</v>
+        <v>1.614631103937398</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.25502333609428</v>
+        <v>2.240521119405801</v>
       </c>
     </row>
     <row r="25">
@@ -1194,7 +1190,7 @@
         <v>1.778804224679662</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>-0.3328942131279745</v>
+        <v>-0.3328942131279738</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2555719921944937</v>
@@ -1203,7 +1199,7 @@
         <v>0.7420294959521706</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.0821138370497299</v>
+        <v>-0.08211383704972973</v>
       </c>
     </row>
     <row r="26">
@@ -1214,22 +1210,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.9619877877394809</v>
+        <v>-1.067234818998257</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.11797467450017</v>
+        <v>-0.1113121844880064</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-2.428794204261304</v>
+        <v>-2.168595628682586</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3499980013222901</v>
+        <v>-0.4046189265231334</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.09126436460694266</v>
+        <v>-0.06937697997980426</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4469083058621867</v>
+        <v>-0.4056426601237675</v>
       </c>
     </row>
     <row r="27">
@@ -1240,22 +1236,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.870467548745672</v>
+        <v>2.067843253955584</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.709871988146211</v>
+        <v>3.794246938342168</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.457097999724512</v>
+        <v>1.456811480239482</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.594277226679636</v>
+        <v>1.447641773760927</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.102025853974402</v>
+        <v>2.262095634524824</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5250633196218847</v>
+        <v>0.5136174788015889</v>
       </c>
     </row>
     <row r="28">
@@ -1276,7 +1272,7 @@
         <v>1.443346157724674</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.9137689685655321</v>
+        <v>0.9137689685655315</v>
       </c>
       <c r="F28" s="6" t="n">
         <v>0.4175795292042966</v>
@@ -1285,7 +1281,7 @@
         <v>0.5684562238127547</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2372845890012987</v>
+        <v>0.2372845890012985</v>
       </c>
     </row>
     <row r="29">
@@ -1296,22 +1292,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.07449410587279109</v>
+        <v>0.06423213647337685</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5733589026429</v>
+        <v>0.5198158457646237</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.072637073422786</v>
+        <v>-0.1189191554363054</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.02333659650377763</v>
+        <v>0.02243125900331036</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2051118700153089</v>
+        <v>0.1875486078007852</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.02423398990143532</v>
+        <v>-0.03075059950313404</v>
       </c>
     </row>
     <row r="30">
@@ -1322,22 +1318,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.478991581180482</v>
+        <v>1.551488852088494</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.326540410472692</v>
+        <v>2.258944911477547</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.85253959247546</v>
+        <v>1.894969071826819</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.9219745210621446</v>
+        <v>0.9796815830821736</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1.112201149551953</v>
+        <v>1.022837305074137</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5601764311988165</v>
+        <v>0.5622271205067001</v>
       </c>
     </row>
     <row r="31">
